--- a/training_reciord.xlsx
+++ b/training_reciord.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="31800" windowHeight="15255"/>
+    <workbookView windowHeight="17955"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,12 +16,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="45">
   <si>
     <t>ID</t>
   </si>
   <si>
-    <t>num_envs/batch_size</t>
+    <t>num_envs/
+batch_size</t>
   </si>
   <si>
     <t>num_threads</t>
@@ -33,10 +34,22 @@
     <t>supervised</t>
   </si>
   <si>
-    <t>learning_rate</t>
+    <t>max_lr</t>
+  </si>
+  <si>
+    <t>min_lr</t>
+  </si>
+  <si>
+    <t>warmup_pct</t>
+  </si>
+  <si>
+    <t>decay_pct</t>
   </si>
   <si>
     <t>epoch</t>
+  </si>
+  <si>
+    <t>training_time</t>
   </si>
   <si>
     <t>loss_weight
@@ -58,7 +71,88 @@
     <t>vel_max</t>
   </si>
   <si>
-    <t>time</t>
+    <t>result</t>
+  </si>
+  <si>
+    <t>YOPO1-YOPO_20，因batch_size太小、学习率设置问题、数据集过小、训练效率问题，全都未收敛或剧烈震荡\末期发散，中途取消，均训练失败</t>
+  </si>
+  <si>
+    <t>YOPO_21</t>
+  </si>
+  <si>
+    <t>55k</t>
+  </si>
+  <si>
+    <t>4h31min</t>
+  </si>
+  <si>
+    <t>[1.0, 10.0]</t>
+  </si>
+  <si>
+    <t>30°</t>
+  </si>
+  <si>
+    <t>未收敛</t>
+  </si>
+  <si>
+    <t>YOPO_22</t>
+  </si>
+  <si>
+    <t>4h19min</t>
+  </si>
+  <si>
+    <t>YOPO_23</t>
+  </si>
+  <si>
+    <t>5h45min</t>
+  </si>
+  <si>
+    <t>速度慢一些，但是收敛趋势明确，最后略有发散</t>
+  </si>
+  <si>
+    <t>YOPO_24</t>
+  </si>
+  <si>
+    <t>5h31min</t>
+  </si>
+  <si>
+    <t>又好又快，未完全收敛，还有缓慢下降趋势</t>
+  </si>
+  <si>
+    <t>YOPO_25</t>
+  </si>
+  <si>
+    <t>11h34min</t>
+  </si>
+  <si>
+    <t>震荡严重，最后有些发散趋势</t>
+  </si>
+  <si>
+    <t>YOPO_26</t>
+  </si>
+  <si>
+    <t>9h13min</t>
+  </si>
+  <si>
+    <t>未完全收敛成功，还在下降过程中</t>
+  </si>
+  <si>
+    <t>YOPO_27</t>
+  </si>
+  <si>
+    <t>9h2min</t>
+  </si>
+  <si>
+    <t>比YOPO_26收敛更快，相同步长略慢于YOPO_24，1000轮之后又震荡，最后下降趋势未完全收敛成功</t>
+  </si>
+  <si>
+    <t>YOPO_28</t>
+  </si>
+  <si>
+    <t>YOPO_29</t>
+  </si>
+  <si>
+    <t>YOPO_30</t>
   </si>
 </sst>
 </file>
@@ -68,11 +162,19 @@
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -89,7 +191,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -98,12 +200,119 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -116,122 +325,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -240,187 +335,211 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -436,18 +555,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -462,6 +574,54 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -484,212 +644,207 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1039,71 +1194,564 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="L1:Y1"/>
+  <dimension ref="A1:R12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="Y5" sqref="Y5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight" activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="25" customHeight="1"/>
   <cols>
-    <col min="1" max="11" width="15.6148148148148" style="1" customWidth="1"/>
-    <col min="12" max="12" width="11.0592592592593" style="1" customWidth="1"/>
-    <col min="13" max="13" width="18.2222222222222" style="1" customWidth="1"/>
-    <col min="14" max="21" width="15.6148148148148" style="1" customWidth="1"/>
-    <col min="22" max="22" width="18.0592592592593" style="1" customWidth="1"/>
-    <col min="23" max="23" width="18" style="1" customWidth="1"/>
-    <col min="24" max="24" width="15.6148148148148" style="1" customWidth="1"/>
-    <col min="25" max="25" width="12.8888888888889" style="1" customWidth="1"/>
-    <col min="26" max="47" width="15.6148148148148" style="1" customWidth="1"/>
-    <col min="48" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="9.28148148148148" style="6" customWidth="1"/>
+    <col min="2" max="2" width="11.0592592592593" style="6" customWidth="1"/>
+    <col min="3" max="3" width="13.3407407407407" style="6" customWidth="1"/>
+    <col min="4" max="4" width="9.44444444444444" style="6" customWidth="1"/>
+    <col min="5" max="5" width="11.0074074074074" style="6" customWidth="1"/>
+    <col min="6" max="6" width="8.94814814814815" style="6" customWidth="1"/>
+    <col min="7" max="8" width="7.66666666666667" style="6" customWidth="1"/>
+    <col min="9" max="9" width="10" style="6" customWidth="1"/>
+    <col min="10" max="10" width="7.05925925925926" style="6" customWidth="1"/>
+    <col min="11" max="11" width="10.3333333333333" style="6" customWidth="1"/>
+    <col min="12" max="12" width="13.6740740740741" style="6" customWidth="1"/>
+    <col min="13" max="13" width="11.0592592592593" style="6" customWidth="1"/>
+    <col min="14" max="14" width="13.3925925925926" style="6" customWidth="1"/>
+    <col min="15" max="15" width="15.1185185185185" style="6" customWidth="1"/>
+    <col min="16" max="16" width="12.7259259259259" style="6" customWidth="1"/>
+    <col min="17" max="17" width="11.8444444444444" style="6" customWidth="1"/>
+    <col min="18" max="19" width="81.3333333333333" style="6" customWidth="1"/>
+    <col min="20" max="20" width="11.4444444444444" style="6" customWidth="1"/>
+    <col min="21" max="21" width="10.0074074074074" style="6" customWidth="1"/>
+    <col min="22" max="22" width="7.72592592592593" style="6" customWidth="1"/>
+    <col min="23" max="23" width="12.2296296296296" style="6" customWidth="1"/>
+    <col min="24" max="24" width="11.7851851851852" style="6" customWidth="1"/>
+    <col min="25" max="25" width="12.3333333333333" style="6" customWidth="1"/>
+    <col min="26" max="26" width="17.3333333333333" style="6" customWidth="1"/>
+    <col min="27" max="27" width="18" style="6" customWidth="1"/>
+    <col min="28" max="28" width="9.5037037037037" style="6" customWidth="1"/>
+    <col min="29" max="29" width="12.8888888888889" style="6" customWidth="1"/>
+    <col min="30" max="51" width="15.6148148148148" style="6" customWidth="1"/>
+    <col min="52" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" ht="41" customHeight="1" spans="12:25">
-      <c r="L1" s="1" t="s">
+    <row r="1" s="1" customFormat="1" ht="41" customHeight="1" spans="1:18">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="R1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:1">
+      <c r="A2" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" customHeight="1" spans="1:18">
+      <c r="A3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="2">
+        <v>256</v>
+      </c>
+      <c r="C3" s="2">
+        <v>32</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1</v>
+      </c>
+      <c r="F3" s="9">
+        <v>5e-5</v>
+      </c>
+      <c r="G3" s="9">
+        <v>1e-6</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="J3" s="2">
+        <v>750</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="2">
+        <v>5</v>
+      </c>
+      <c r="N3" s="2">
+        <v>3</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P3" s="2">
+        <v>30</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>2</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="1" customHeight="1" spans="1:18">
+      <c r="A4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="2">
+        <v>256</v>
+      </c>
+      <c r="C4" s="2">
+        <v>32</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="9">
+        <v>5e-5</v>
+      </c>
+      <c r="G4" s="9">
+        <v>5e-5</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="J4" s="2">
+        <v>750</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="2">
+        <v>5</v>
+      </c>
+      <c r="N4" s="2">
+        <v>3</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P4" s="2">
+        <v>30</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>2</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" s="3" customFormat="1" customHeight="1" spans="1:18">
+      <c r="A5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="3">
+        <v>256</v>
+      </c>
+      <c r="C5" s="3">
+        <v>32</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+      <c r="F5" s="10">
+        <v>1e-5</v>
+      </c>
+      <c r="G5" s="10">
+        <v>1e-6</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="J5" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="3">
+        <v>5</v>
+      </c>
+      <c r="N5" s="3">
+        <v>3</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="P5" s="3">
+        <v>30</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>2</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" s="4" customFormat="1" customHeight="1" spans="1:18">
+      <c r="A6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="4">
+        <v>256</v>
+      </c>
+      <c r="C6" s="4">
+        <v>32</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
+      <c r="F6" s="11">
+        <v>2e-6</v>
+      </c>
+      <c r="G6" s="11">
+        <v>1e-7</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="J6" s="4">
+        <v>1000</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="4">
+        <v>5</v>
+      </c>
+      <c r="N6" s="4">
+        <v>3</v>
+      </c>
+      <c r="O6" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="P6" s="14">
+        <v>30</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>2</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" s="5" customFormat="1" customHeight="1" spans="1:18">
+      <c r="A7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="5">
+        <v>256</v>
+      </c>
+      <c r="C7" s="5">
+        <v>32</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="5">
+        <v>1</v>
+      </c>
+      <c r="F7" s="12">
+        <v>1.5e-6</v>
+      </c>
+      <c r="G7" s="12">
+        <v>3e-7</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="I7" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="J7" s="5">
+        <v>2000</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" s="5">
+        <v>5</v>
+      </c>
+      <c r="N7" s="5">
+        <v>3</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="P7" s="5">
+        <v>30</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>2</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" s="3" customFormat="1" customHeight="1" spans="1:18">
+      <c r="A8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="3">
+        <v>256</v>
+      </c>
+      <c r="C8" s="3">
+        <v>32</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+      <c r="F8" s="10">
+        <v>2e-6</v>
+      </c>
+      <c r="G8" s="10">
+        <v>1.5e-7</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="J8" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M8" s="3">
+        <v>5</v>
+      </c>
+      <c r="N8" s="3">
+        <v>3</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="P8" s="3">
+        <v>30</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>2</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" s="3" customFormat="1" customHeight="1" spans="1:18">
+      <c r="A9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="3">
+        <v>256</v>
+      </c>
+      <c r="C9" s="3">
+        <v>32</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+      <c r="F9" s="10">
+        <v>2e-6</v>
+      </c>
+      <c r="G9" s="10">
+        <v>1e-7</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="J9" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M9" s="3">
+        <v>5</v>
+      </c>
+      <c r="N9" s="3">
+        <v>3</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="P9" s="3">
+        <v>30</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>2</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:17">
+      <c r="A10" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="6">
+        <v>256</v>
+      </c>
+      <c r="C10" s="6">
+        <v>32</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="6">
+        <v>1</v>
+      </c>
+      <c r="F10" s="13">
+        <v>2e-6</v>
+      </c>
+      <c r="G10" s="13">
+        <v>5e-8</v>
+      </c>
+      <c r="H10" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="I10" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="J10" s="6">
+        <v>1500</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M10" s="6">
+        <v>5</v>
+      </c>
+      <c r="N10" s="6">
+        <v>3</v>
+      </c>
+      <c r="O10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="P10" s="6">
+        <v>30</v>
+      </c>
+      <c r="Q10" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:1">
+      <c r="A11" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="1:1">
+      <c r="A12" s="6" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:Q2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/training_reciord.xlsx
+++ b/training_reciord.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17955"/>
+    <workbookView windowWidth="31800" windowHeight="15255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="47">
   <si>
     <t>ID</t>
   </si>
@@ -147,6 +147,12 @@
   </si>
   <si>
     <t>YOPO_28</t>
+  </si>
+  <si>
+    <t>2h1min---</t>
+  </si>
+  <si>
+    <t>因电脑问题，重启导致中断，进度约1/3，不如YOPO_24、YOPO_27</t>
   </si>
   <si>
     <t>YOPO_29</t>
@@ -182,6 +188,142 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -189,144 +331,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="37">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -359,7 +365,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -371,175 +521,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -550,6 +550,78 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -578,229 +650,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -823,9 +823,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -841,9 +838,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1197,9 +1191,9 @@
   <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="J24" sqref="J24"/>
+      <selection pane="topRight" activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="25" customHeight="1"/>
@@ -1236,55 +1230,55 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="41" customHeight="1" spans="1:18">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="R1" s="1" t="s">
@@ -1312,10 +1306,10 @@
       <c r="E3" s="2">
         <v>1</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="8">
         <v>5e-5</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="8">
         <v>1e-6</v>
       </c>
       <c r="H3" s="2">
@@ -1368,10 +1362,10 @@
       <c r="E4" s="2">
         <v>1</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="8">
         <v>5e-5</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="8">
         <v>5e-5</v>
       </c>
       <c r="H4" s="2">
@@ -1424,10 +1418,10 @@
       <c r="E5" s="3">
         <v>1</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="9">
         <v>1e-5</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="9">
         <v>1e-6</v>
       </c>
       <c r="H5" s="3">
@@ -1480,10 +1474,10 @@
       <c r="E6" s="4">
         <v>1</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="10">
         <v>2e-6</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="10">
         <v>1e-7</v>
       </c>
       <c r="H6" s="4">
@@ -1507,10 +1501,10 @@
       <c r="N6" s="4">
         <v>3</v>
       </c>
-      <c r="O6" s="14" t="s">
+      <c r="O6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="P6" s="14">
+      <c r="P6" s="4">
         <v>30</v>
       </c>
       <c r="Q6" s="4">
@@ -1536,10 +1530,10 @@
       <c r="E7" s="5">
         <v>1</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="11">
         <v>1.5e-6</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="11">
         <v>3e-7</v>
       </c>
       <c r="H7" s="5">
@@ -1592,10 +1586,10 @@
       <c r="E8" s="3">
         <v>1</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="9">
         <v>2e-6</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="9">
         <v>1.5e-7</v>
       </c>
       <c r="H8" s="3">
@@ -1648,10 +1642,10 @@
       <c r="E9" s="3">
         <v>1</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="9">
         <v>2e-6</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="9">
         <v>1e-7</v>
       </c>
       <c r="H9" s="3">
@@ -1688,7 +1682,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" customHeight="1" spans="1:17">
+    <row r="10" customHeight="1" spans="1:18">
       <c r="A10" s="6" t="s">
         <v>42</v>
       </c>
@@ -1704,10 +1698,10 @@
       <c r="E10" s="6">
         <v>1</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="12">
         <v>2e-6</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G10" s="12">
         <v>5e-8</v>
       </c>
       <c r="H10" s="6">
@@ -1719,6 +1713,9 @@
       <c r="J10" s="6">
         <v>1500</v>
       </c>
+      <c r="K10" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="L10" s="6" t="s">
         <v>22</v>
       </c>
@@ -1737,15 +1734,55 @@
       <c r="Q10" s="6">
         <v>2</v>
       </c>
+      <c r="R10" s="6" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="11" customHeight="1" spans="1:1">
+    <row r="11" customHeight="1" spans="1:17">
       <c r="A11" s="6" t="s">
-        <v>43</v>
+        <v>45</v>
+      </c>
+      <c r="E11" s="6">
+        <v>1</v>
+      </c>
+      <c r="F11" s="12">
+        <v>2e-6</v>
+      </c>
+      <c r="G11" s="12">
+        <v>1.5e-7</v>
+      </c>
+      <c r="H11" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="I11" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="J11" s="6">
+        <v>1000</v>
+      </c>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M11" s="6">
+        <v>5</v>
+      </c>
+      <c r="N11" s="6">
+        <v>3</v>
+      </c>
+      <c r="O11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="P11" s="6">
+        <v>30</v>
+      </c>
+      <c r="Q11" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:1">
       <c r="A12" s="6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/training_reciord.xlsx
+++ b/training_reciord.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="52">
   <si>
     <t>ID</t>
   </si>
@@ -56,6 +56,9 @@
 (cost, score)</t>
   </si>
   <si>
+    <t>downsample_scale</t>
+  </si>
+  <si>
     <t>horizon_num</t>
   </si>
   <si>
@@ -158,7 +161,19 @@
     <t>YOPO_29</t>
   </si>
   <si>
+    <t>6h58min</t>
+  </si>
+  <si>
+    <t>对比YOPO_24，只有速度和轮次差异, score结果尚可，traj_cost未收敛且有发散趋势，前期学习率似乎太低了，速度6是否学习率也得调整</t>
+  </si>
+  <si>
     <t>YOPO_30</t>
+  </si>
+  <si>
+    <t>感觉学习率还是大了一点，前期震荡上升是快的，然后下降，但是中间一直比较平稳，没有下降趋势，1/3左右traj_cost又上了一个高台</t>
+  </si>
+  <si>
+    <t>YOPO_31</t>
   </si>
 </sst>
 </file>
@@ -188,6 +203,96 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -197,7 +302,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -210,127 +346,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -371,6 +386,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -389,6 +410,78 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -401,31 +494,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -437,109 +542,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -558,15 +573,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -595,6 +601,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -606,6 +632,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -624,149 +665,123 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -775,19 +790,19 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -796,7 +811,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1188,12 +1203,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R12"/>
+  <dimension ref="A1:S14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="L17" sqref="L17"/>
+      <selection pane="topRight" activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="25" customHeight="1"/>
@@ -1208,28 +1223,29 @@
     <col min="9" max="9" width="10" style="6" customWidth="1"/>
     <col min="10" max="10" width="7.05925925925926" style="6" customWidth="1"/>
     <col min="11" max="11" width="10.3333333333333" style="6" customWidth="1"/>
-    <col min="12" max="12" width="13.6740740740741" style="6" customWidth="1"/>
-    <col min="13" max="13" width="11.0592592592593" style="6" customWidth="1"/>
-    <col min="14" max="14" width="13.3925925925926" style="6" customWidth="1"/>
-    <col min="15" max="15" width="15.1185185185185" style="6" customWidth="1"/>
-    <col min="16" max="16" width="12.7259259259259" style="6" customWidth="1"/>
-    <col min="17" max="17" width="11.8444444444444" style="6" customWidth="1"/>
-    <col min="18" max="19" width="81.3333333333333" style="6" customWidth="1"/>
-    <col min="20" max="20" width="11.4444444444444" style="6" customWidth="1"/>
-    <col min="21" max="21" width="10.0074074074074" style="6" customWidth="1"/>
-    <col min="22" max="22" width="7.72592592592593" style="6" customWidth="1"/>
-    <col min="23" max="23" width="12.2296296296296" style="6" customWidth="1"/>
-    <col min="24" max="24" width="11.7851851851852" style="6" customWidth="1"/>
-    <col min="25" max="25" width="12.3333333333333" style="6" customWidth="1"/>
-    <col min="26" max="26" width="17.3333333333333" style="6" customWidth="1"/>
-    <col min="27" max="27" width="18" style="6" customWidth="1"/>
-    <col min="28" max="28" width="9.5037037037037" style="6" customWidth="1"/>
-    <col min="29" max="29" width="12.8888888888889" style="6" customWidth="1"/>
-    <col min="30" max="51" width="15.6148148148148" style="6" customWidth="1"/>
-    <col min="52" max="16384" width="9" style="6"/>
+    <col min="12" max="13" width="13.6740740740741" style="6" customWidth="1"/>
+    <col min="14" max="14" width="11.0592592592593" style="6" customWidth="1"/>
+    <col min="15" max="15" width="13.3925925925926" style="6" customWidth="1"/>
+    <col min="16" max="16" width="15.1185185185185" style="6" customWidth="1"/>
+    <col min="17" max="17" width="12.7259259259259" style="6" customWidth="1"/>
+    <col min="18" max="18" width="8.8962962962963" style="6" customWidth="1"/>
+    <col min="19" max="19" width="103.392592592593" style="6" customWidth="1"/>
+    <col min="20" max="20" width="81.3333333333333" style="6" customWidth="1"/>
+    <col min="21" max="21" width="11.4444444444444" style="6" customWidth="1"/>
+    <col min="22" max="22" width="10.0074074074074" style="6" customWidth="1"/>
+    <col min="23" max="23" width="7.72592592592593" style="6" customWidth="1"/>
+    <col min="24" max="24" width="12.2296296296296" style="6" customWidth="1"/>
+    <col min="25" max="25" width="11.7851851851852" style="6" customWidth="1"/>
+    <col min="26" max="26" width="12.3333333333333" style="6" customWidth="1"/>
+    <col min="27" max="27" width="17.3333333333333" style="6" customWidth="1"/>
+    <col min="28" max="28" width="18" style="6" customWidth="1"/>
+    <col min="29" max="29" width="9.5037037037037" style="6" customWidth="1"/>
+    <col min="30" max="30" width="12.8888888888889" style="6" customWidth="1"/>
+    <col min="31" max="52" width="15.6148148148148" style="6" customWidth="1"/>
+    <col min="53" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="41" customHeight="1" spans="1:18">
+    <row r="1" s="1" customFormat="1" ht="41" customHeight="1" spans="1:19">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1266,7 +1282,7 @@
       <c r="L1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="7" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
@@ -1283,16 +1299,19 @@
       </c>
       <c r="R1" s="1" t="s">
         <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:1">
       <c r="A2" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" customHeight="1" spans="1:18">
+    <row r="3" s="2" customFormat="1" customHeight="1" spans="1:19">
       <c r="A3" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B3" s="2">
         <v>256</v>
@@ -1301,7 +1320,7 @@
         <v>32</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3" s="2">
         <v>1</v>
@@ -1322,33 +1341,36 @@
         <v>750</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M3" s="2">
+        <v>32</v>
+      </c>
+      <c r="N3" s="2">
         <v>5</v>
       </c>
-      <c r="N3" s="2">
+      <c r="O3" s="2">
         <v>3</v>
       </c>
-      <c r="O3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="P3" s="2">
-        <v>30</v>
-      </c>
-      <c r="Q3" s="2">
+      <c r="P3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R3" s="2">
         <v>2</v>
       </c>
-      <c r="R3" s="2" t="s">
-        <v>24</v>
+      <c r="S3" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" customHeight="1" spans="1:18">
+    <row r="4" s="2" customFormat="1" customHeight="1" spans="1:19">
       <c r="A4" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B4" s="2">
         <v>256</v>
@@ -1357,7 +1379,7 @@
         <v>32</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4" s="2">
         <v>1</v>
@@ -1378,33 +1400,36 @@
         <v>750</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M4" s="2">
+        <v>32</v>
+      </c>
+      <c r="N4" s="2">
         <v>5</v>
       </c>
-      <c r="N4" s="2">
+      <c r="O4" s="2">
         <v>3</v>
       </c>
-      <c r="O4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="P4" s="2">
-        <v>30</v>
-      </c>
-      <c r="Q4" s="2">
+      <c r="P4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R4" s="2">
         <v>2</v>
       </c>
-      <c r="R4" s="2" t="s">
-        <v>24</v>
+      <c r="S4" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="5" s="3" customFormat="1" customHeight="1" spans="1:18">
+    <row r="5" s="3" customFormat="1" customHeight="1" spans="1:19">
       <c r="A5" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B5" s="3">
         <v>256</v>
@@ -1413,7 +1438,7 @@
         <v>32</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5" s="3">
         <v>1</v>
@@ -1434,33 +1459,36 @@
         <v>1000</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M5" s="3">
+        <v>32</v>
+      </c>
+      <c r="N5" s="3">
         <v>5</v>
       </c>
-      <c r="N5" s="3">
+      <c r="O5" s="3">
         <v>3</v>
       </c>
-      <c r="O5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="P5" s="3">
+      <c r="P5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R5" s="3">
+        <v>2</v>
+      </c>
+      <c r="S5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="Q5" s="3">
-        <v>2</v>
-      </c>
-      <c r="R5" s="3" t="s">
-        <v>29</v>
-      </c>
     </row>
-    <row r="6" s="4" customFormat="1" customHeight="1" spans="1:18">
+    <row r="6" s="4" customFormat="1" customHeight="1" spans="1:19">
       <c r="A6" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B6" s="4">
         <v>256</v>
@@ -1469,7 +1497,7 @@
         <v>32</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6" s="4">
         <v>1</v>
@@ -1490,33 +1518,36 @@
         <v>1000</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M6" s="4">
+        <v>32</v>
+      </c>
+      <c r="N6" s="4">
         <v>5</v>
       </c>
-      <c r="N6" s="4">
+      <c r="O6" s="4">
         <v>3</v>
       </c>
-      <c r="O6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="P6" s="4">
-        <v>30</v>
-      </c>
-      <c r="Q6" s="4">
+      <c r="P6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="R6" s="4">
         <v>2</v>
       </c>
-      <c r="R6" s="4" t="s">
-        <v>32</v>
+      <c r="S6" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="7" s="5" customFormat="1" customHeight="1" spans="1:18">
+    <row r="7" s="5" customFormat="1" customHeight="1" spans="1:19">
       <c r="A7" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B7" s="5">
         <v>256</v>
@@ -1525,7 +1556,7 @@
         <v>32</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7" s="5">
         <v>1</v>
@@ -1546,33 +1577,36 @@
         <v>2000</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M7" s="5">
+        <v>32</v>
+      </c>
+      <c r="N7" s="5">
         <v>5</v>
       </c>
-      <c r="N7" s="5">
+      <c r="O7" s="5">
         <v>3</v>
       </c>
-      <c r="O7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="P7" s="5">
-        <v>30</v>
-      </c>
-      <c r="Q7" s="5">
+      <c r="P7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R7" s="5">
         <v>2</v>
       </c>
-      <c r="R7" s="5" t="s">
-        <v>35</v>
+      <c r="S7" s="5" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="8" s="3" customFormat="1" customHeight="1" spans="1:18">
+    <row r="8" s="3" customFormat="1" customHeight="1" spans="1:19">
       <c r="A8" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B8" s="3">
         <v>256</v>
@@ -1581,7 +1615,7 @@
         <v>32</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8" s="3">
         <v>1</v>
@@ -1602,33 +1636,36 @@
         <v>1500</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M8" s="3">
+        <v>32</v>
+      </c>
+      <c r="N8" s="3">
         <v>5</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="P8" s="3">
-        <v>30</v>
-      </c>
-      <c r="Q8" s="3">
+      <c r="P8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R8" s="3">
         <v>2</v>
       </c>
-      <c r="R8" s="3" t="s">
-        <v>38</v>
+      <c r="S8" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="9" s="3" customFormat="1" customHeight="1" spans="1:18">
+    <row r="9" s="3" customFormat="1" customHeight="1" spans="1:19">
       <c r="A9" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B9" s="3">
         <v>256</v>
@@ -1637,7 +1674,7 @@
         <v>32</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9" s="3">
         <v>1</v>
@@ -1658,33 +1695,36 @@
         <v>1500</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M9" s="3">
+        <v>32</v>
+      </c>
+      <c r="N9" s="3">
         <v>5</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="P9" s="3">
-        <v>30</v>
-      </c>
-      <c r="Q9" s="3">
+      <c r="P9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R9" s="3">
         <v>2</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>41</v>
+      <c r="S9" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="10" customHeight="1" spans="1:18">
+    <row r="10" customHeight="1" spans="1:19">
       <c r="A10" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B10" s="6">
         <v>256</v>
@@ -1693,7 +1733,7 @@
         <v>32</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E10" s="6">
         <v>1</v>
@@ -1714,80 +1754,209 @@
         <v>1500</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M10" s="6">
+        <v>32</v>
+      </c>
+      <c r="N10" s="6">
         <v>5</v>
       </c>
-      <c r="N10" s="6">
+      <c r="O10" s="6">
         <v>3</v>
       </c>
-      <c r="O10" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="P10" s="6">
-        <v>30</v>
-      </c>
-      <c r="Q10" s="6">
+      <c r="P10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="R10" s="6">
         <v>2</v>
       </c>
-      <c r="R10" s="6" t="s">
-        <v>44</v>
+      <c r="S10" s="6" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="11" customHeight="1" spans="1:17">
-      <c r="A11" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" s="6">
-        <v>1</v>
-      </c>
-      <c r="F11" s="12">
-        <v>2e-6</v>
-      </c>
-      <c r="G11" s="12">
-        <v>1.5e-7</v>
-      </c>
-      <c r="H11" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="I11" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="J11" s="6">
-        <v>1000</v>
-      </c>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M11" s="6">
-        <v>5</v>
-      </c>
-      <c r="N11" s="6">
-        <v>3</v>
-      </c>
-      <c r="O11" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="P11" s="6">
-        <v>30</v>
-      </c>
-      <c r="Q11" s="6">
-        <v>2</v>
-      </c>
+    <row r="11" customHeight="1" spans="6:7">
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
     </row>
-    <row r="12" customHeight="1" spans="1:1">
+    <row r="12" customHeight="1" spans="1:19">
       <c r="A12" s="6" t="s">
         <v>46</v>
+      </c>
+      <c r="B12" s="6">
+        <v>256</v>
+      </c>
+      <c r="C12" s="6">
+        <v>32</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="6">
+        <v>1</v>
+      </c>
+      <c r="F12" s="12">
+        <v>2e-6</v>
+      </c>
+      <c r="G12" s="12">
+        <v>1e-7</v>
+      </c>
+      <c r="H12" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="I12" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="J12" s="6">
+        <v>1200</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M12" s="6">
+        <v>32</v>
+      </c>
+      <c r="N12" s="6">
+        <v>5</v>
+      </c>
+      <c r="O12" s="6">
+        <v>3</v>
+      </c>
+      <c r="P12" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q12" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="R12" s="6">
+        <v>6</v>
+      </c>
+      <c r="S12" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="1:19">
+      <c r="A13" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="6">
+        <v>256</v>
+      </c>
+      <c r="C13" s="6">
+        <v>32</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="6">
+        <v>1</v>
+      </c>
+      <c r="F13" s="12">
+        <v>4e-6</v>
+      </c>
+      <c r="G13" s="12">
+        <v>1e-7</v>
+      </c>
+      <c r="H13" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="I13" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="J13" s="6">
+        <v>1200</v>
+      </c>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M13" s="6">
+        <v>32</v>
+      </c>
+      <c r="N13" s="6">
+        <v>5</v>
+      </c>
+      <c r="O13" s="6">
+        <v>3</v>
+      </c>
+      <c r="P13" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q13" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="R13" s="6">
+        <v>6</v>
+      </c>
+      <c r="S13" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="1:18">
+      <c r="A14" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="6">
+        <v>256</v>
+      </c>
+      <c r="C14" s="6">
+        <v>32</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="6">
+        <v>1</v>
+      </c>
+      <c r="F14" s="12">
+        <v>2e-7</v>
+      </c>
+      <c r="G14" s="12">
+        <v>1e-8</v>
+      </c>
+      <c r="H14" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="I14" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="J14" s="6">
+        <v>1200</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M14" s="6">
+        <v>32</v>
+      </c>
+      <c r="N14" s="6">
+        <v>5</v>
+      </c>
+      <c r="O14" s="6">
+        <v>3</v>
+      </c>
+      <c r="P14" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q14" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="R14" s="6">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:Q2"/>
+    <mergeCell ref="A2:R2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/training_reciord.xlsx
+++ b/training_reciord.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="54">
   <si>
     <t>ID</t>
   </si>
@@ -170,10 +170,16 @@
     <t>YOPO_30</t>
   </si>
   <si>
-    <t>感觉学习率还是大了一点，前期震荡上升是快的，然后下降，但是中间一直比较平稳，没有下降趋势，1/3左右traj_cost又上了一个高台</t>
+    <t>6h53min</t>
+  </si>
+  <si>
+    <t>感觉学习率还是大了一点，前期震荡上升是快的，然后下降，但是中间一直比较平稳，没有下降趋势，后续traj_cost又上了一个高台，电脑问题终止</t>
   </si>
   <si>
     <t>YOPO_31</t>
+  </si>
+  <si>
+    <t>学习率调小后效果很明显，最大值也很小，震荡也很少</t>
   </si>
 </sst>
 </file>
@@ -181,10 +187,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -212,14 +218,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,25 +256,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="0"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -266,7 +280,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -276,28 +297,6 @@
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -316,16 +315,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -333,15 +332,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -380,181 +386,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -568,11 +574,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -581,7 +593,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -601,22 +613,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -636,32 +643,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -670,142 +676,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1208,7 +1214,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="N21" sqref="N21"/>
+      <selection pane="topRight" activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="25" customHeight="1"/>
@@ -1229,7 +1235,7 @@
     <col min="16" max="16" width="15.1185185185185" style="6" customWidth="1"/>
     <col min="17" max="17" width="12.7259259259259" style="6" customWidth="1"/>
     <col min="18" max="18" width="8.8962962962963" style="6" customWidth="1"/>
-    <col min="19" max="19" width="103.392592592593" style="6" customWidth="1"/>
+    <col min="19" max="19" width="122.392592592593" style="6" customWidth="1"/>
     <col min="20" max="20" width="81.3333333333333" style="6" customWidth="1"/>
     <col min="21" max="21" width="11.4444444444444" style="6" customWidth="1"/>
     <col min="22" max="22" width="10.0074074074074" style="6" customWidth="1"/>
@@ -1875,7 +1881,9 @@
       <c r="J13" s="6">
         <v>1200</v>
       </c>
-      <c r="K13" s="6"/>
+      <c r="K13" s="6" t="s">
+        <v>50</v>
+      </c>
       <c r="L13" s="6" t="s">
         <v>23</v>
       </c>
@@ -1898,12 +1906,12 @@
         <v>6</v>
       </c>
       <c r="S13" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="14" customHeight="1" spans="1:18">
+    <row r="14" customHeight="1" spans="1:19">
       <c r="A14" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B14" s="6">
         <v>256</v>
@@ -1952,6 +1960,9 @@
       </c>
       <c r="R14" s="6">
         <v>6</v>
+      </c>
+      <c r="S14" s="6" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/training_reciord.xlsx
+++ b/training_reciord.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="56">
   <si>
     <t>ID</t>
   </si>
@@ -179,7 +179,13 @@
     <t>YOPO_31</t>
   </si>
   <si>
-    <t>学习率调小后效果很明显，最大值也很小，震荡也很少</t>
+    <t>12h19min</t>
+  </si>
+  <si>
+    <t>学习率调小后效果很明显，最大值也很小，震荡也很少，曲线更平滑，在1000轮左右收敛了一下（耗时9h29min，比YOPO_24多了4h），结果和YOPO_24接近，但后期decay阶段又开始发散，趋势未结束</t>
+  </si>
+  <si>
+    <t>YOPO_32</t>
   </si>
 </sst>
 </file>
@@ -188,9 +194,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -225,26 +231,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -257,7 +247,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -265,7 +255,44 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -280,21 +307,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -302,6 +322,22 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -322,36 +358,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -386,13 +392,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -404,73 +512,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -482,7 +530,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -494,13 +542,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -512,49 +560,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -571,6 +577,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -589,10 +619,27 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -613,32 +660,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -651,167 +677,147 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1209,12 +1215,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S14"/>
+  <dimension ref="A1:S15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="S14" sqref="S14"/>
+      <selection pane="topRight" activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="25" customHeight="1"/>
@@ -1909,7 +1915,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" customHeight="1" spans="1:19">
+    <row r="14" ht="37" customHeight="1" spans="1:19">
       <c r="A14" s="6" t="s">
         <v>52</v>
       </c>
@@ -1940,6 +1946,9 @@
       <c r="J14" s="6">
         <v>1200</v>
       </c>
+      <c r="K14" s="6" t="s">
+        <v>53</v>
+      </c>
       <c r="L14" s="6" t="s">
         <v>23</v>
       </c>
@@ -1962,7 +1971,60 @@
         <v>6</v>
       </c>
       <c r="S14" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="1:18">
+      <c r="A15" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="6">
+        <v>256</v>
+      </c>
+      <c r="C15" s="6">
+        <v>32</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="6">
+        <v>1</v>
+      </c>
+      <c r="F15" s="12">
+        <v>2e-7</v>
+      </c>
+      <c r="G15" s="12">
+        <v>5e-8</v>
+      </c>
+      <c r="H15" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="I15" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="J15" s="6">
+        <v>1500</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M15" s="6">
+        <v>32</v>
+      </c>
+      <c r="N15" s="6">
+        <v>5</v>
+      </c>
+      <c r="O15" s="6">
+        <v>3</v>
+      </c>
+      <c r="P15" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q15" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="R15" s="6">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/training_reciord.xlsx
+++ b/training_reciord.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="63">
   <si>
     <t>ID</t>
   </si>
@@ -119,7 +119,7 @@
     <t>5h31min</t>
   </si>
   <si>
-    <t>又好又快，未完全收敛，还有缓慢下降趋势</t>
+    <t>又好又快，未完全收敛，还有缓慢下降趋势，测试效果不好，不如YOPO_31、YOPO_32的1000轮收敛的时候</t>
   </si>
   <si>
     <t>YOPO_25</t>
@@ -182,10 +182,31 @@
     <t>12h19min</t>
   </si>
   <si>
-    <t>学习率调小后效果很明显，最大值也很小，震荡也很少，曲线更平滑，在1000轮左右收敛了一下（耗时9h29min，比YOPO_24多了4h），结果和YOPO_24接近，但后期decay阶段又开始发散，趋势未结束</t>
+    <t>学习率调小后效果很明显，最大值也很小，震荡也很少，曲线更平滑，在1000轮左右收敛了一下（耗时9h29min，比YOPO_24多了4h），测试结果不错，日志结果和YOPO_24接近，但后期decay阶段又开始发散，趋势未结束</t>
   </si>
   <si>
     <t>YOPO_32</t>
+  </si>
+  <si>
+    <t>11h44min</t>
+  </si>
+  <si>
+    <t>与YOPO_31十分类似，90%重叠，说明与decay策略关系不大，可能还是学习率问题，后期太小了没有学习到新东西？</t>
+  </si>
+  <si>
+    <t>YOPO_33</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>8h26min</t>
+  </si>
+  <si>
+    <t>前950轮与YOPO_31、YOPO_32类似，略好，后期发散明显变化，不再上升一个数据级，只有很小幅度上升，最后又有下降趋势，轮次可继续增大</t>
+  </si>
+  <si>
+    <t>YOPO_34</t>
   </si>
 </sst>
 </file>
@@ -193,10 +214,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -215,16 +236,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -238,8 +266,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -247,17 +297,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -284,32 +334,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -320,40 +372,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -392,139 +413,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -536,37 +581,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -580,41 +601,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -646,16 +652,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -665,6 +671,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -682,148 +703,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1215,12 +1236,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S15"/>
+  <dimension ref="A1:S17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="P20" sqref="P20"/>
+      <selection pane="topRight" activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="25" customHeight="1"/>
@@ -1241,7 +1262,7 @@
     <col min="16" max="16" width="15.1185185185185" style="6" customWidth="1"/>
     <col min="17" max="17" width="12.7259259259259" style="6" customWidth="1"/>
     <col min="18" max="18" width="8.8962962962963" style="6" customWidth="1"/>
-    <col min="19" max="19" width="122.392592592593" style="6" customWidth="1"/>
+    <col min="19" max="19" width="149" style="6" customWidth="1"/>
     <col min="20" max="20" width="81.3333333333333" style="6" customWidth="1"/>
     <col min="21" max="21" width="11.4444444444444" style="6" customWidth="1"/>
     <col min="22" max="22" width="10.0074074074074" style="6" customWidth="1"/>
@@ -1915,116 +1936,235 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" ht="37" customHeight="1" spans="1:19">
-      <c r="A14" s="6" t="s">
+    <row r="14" s="4" customFormat="1" ht="37" customHeight="1" spans="1:19">
+      <c r="A14" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="4">
         <v>256</v>
       </c>
-      <c r="C14" s="6">
-        <v>32</v>
-      </c>
-      <c r="D14" s="6" t="s">
+      <c r="C14" s="4">
+        <v>32</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="4">
         <v>1</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="10">
         <v>2e-7</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="10">
         <v>1e-8</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14" s="4">
         <v>0.2</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I14" s="4">
         <v>0.2</v>
       </c>
-      <c r="J14" s="6">
+      <c r="J14" s="4">
         <v>1200</v>
       </c>
-      <c r="K14" s="6" t="s">
+      <c r="K14" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="L14" s="6" t="s">
+      <c r="L14" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="M14" s="6">
-        <v>32</v>
-      </c>
-      <c r="N14" s="6">
+      <c r="M14" s="4">
+        <v>32</v>
+      </c>
+      <c r="N14" s="4">
         <v>5</v>
       </c>
-      <c r="O14" s="6">
+      <c r="O14" s="4">
         <v>3</v>
       </c>
-      <c r="P14" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q14" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="R14" s="6">
+      <c r="P14" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q14" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="R14" s="4">
         <v>6</v>
       </c>
-      <c r="S14" s="6" t="s">
+      <c r="S14" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="15" customHeight="1" spans="1:18">
-      <c r="A15" s="6" t="s">
+    <row r="15" s="4" customFormat="1" customHeight="1" spans="1:19">
+      <c r="A15" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="4">
         <v>256</v>
       </c>
-      <c r="C15" s="6">
-        <v>32</v>
-      </c>
-      <c r="D15" s="6" t="s">
+      <c r="C15" s="4">
+        <v>32</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="4">
         <v>1</v>
       </c>
-      <c r="F15" s="12">
+      <c r="F15" s="10">
         <v>2e-7</v>
       </c>
-      <c r="G15" s="12">
+      <c r="G15" s="10">
         <v>5e-8</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H15" s="4">
         <v>0.1</v>
       </c>
-      <c r="I15" s="6">
+      <c r="I15" s="4">
         <v>0.4</v>
       </c>
-      <c r="J15" s="6">
+      <c r="J15" s="4">
         <v>1500</v>
       </c>
-      <c r="L15" s="6" t="s">
+      <c r="K15" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="L15" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="M15" s="6">
-        <v>32</v>
-      </c>
-      <c r="N15" s="6">
+      <c r="M15" s="4">
+        <v>32</v>
+      </c>
+      <c r="N15" s="4">
         <v>5</v>
       </c>
-      <c r="O15" s="6">
+      <c r="O15" s="4">
         <v>3</v>
       </c>
-      <c r="P15" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q15" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="R15" s="6">
+      <c r="P15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="R15" s="4">
         <v>6</v>
+      </c>
+      <c r="S15" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="1:19">
+      <c r="A16" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="6">
+        <v>256</v>
+      </c>
+      <c r="C16" s="6">
+        <v>32</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="6">
+        <v>1</v>
+      </c>
+      <c r="F16" s="12">
+        <v>2e-7</v>
+      </c>
+      <c r="G16" s="12">
+        <v>2e-7</v>
+      </c>
+      <c r="H16" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="J16" s="6">
+        <v>1100</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M16" s="6">
+        <v>32</v>
+      </c>
+      <c r="N16" s="6">
+        <v>5</v>
+      </c>
+      <c r="O16" s="6">
+        <v>3</v>
+      </c>
+      <c r="P16" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q16" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="R16" s="6">
+        <v>6</v>
+      </c>
+      <c r="S16" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="1:18">
+      <c r="A17" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" s="6">
+        <v>256</v>
+      </c>
+      <c r="C17" s="6">
+        <v>32</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="6">
+        <v>1</v>
+      </c>
+      <c r="F17" s="12">
+        <v>1.5e-7</v>
+      </c>
+      <c r="G17" s="12">
+        <v>1.5e-7</v>
+      </c>
+      <c r="H17" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="J17" s="6">
+        <v>2000</v>
+      </c>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M17" s="6">
+        <v>32</v>
+      </c>
+      <c r="N17" s="6">
+        <v>7</v>
+      </c>
+      <c r="O17" s="6">
+        <v>5</v>
+      </c>
+      <c r="P17" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q17" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="R17" s="6">
+        <v>4.5</v>
       </c>
     </row>
   </sheetData>
